--- a/data/trans_camb/DCD-Edad-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Edad-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>-1.060024033865465</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>5.836266633166747</v>
+        <v>5.836266633166746</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.165564493302013</v>
+        <v>-2.195438029874392</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.281003350474237</v>
+        <v>-1.326811776654738</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.484588861900196</v>
+        <v>-4.038300863678974</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.861384963425602</v>
+        <v>6.220309261935161</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.514263395663052</v>
+        <v>-2.66840465435196</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.062423412470241</v>
+        <v>2.925336189594443</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4234976364492859</v>
+        <v>0.3177246027836647</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.279734656373353</v>
+        <v>3.341938204284963</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9502099426547521</v>
+        <v>1.176209160846595</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17.98572863486533</v>
+        <v>18.95100812895669</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3134789142546395</v>
+        <v>0.364060029698354</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.176885418357193</v>
+        <v>9.2058831140161</v>
       </c>
     </row>
     <row r="7">
@@ -696,7 +696,7 @@
         <v>-0.289335097491353</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>2.487312812322356</v>
+        <v>2.487312812322355</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3574715424576989</v>
@@ -717,16 +717,16 @@
         <v>-1</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.687723423228373</v>
+        <v>-0.6552686251306069</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1.056860465677277</v>
+        <v>0.9081942815390808</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6587084987212506</v>
+        <v>-0.6679621922389221</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8178833179827439</v>
+        <v>0.8019962748634052</v>
       </c>
     </row>
     <row r="9">
@@ -738,19 +738,19 @@
       </c>
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="n">
-        <v>7.749217797688344</v>
+        <v>7.247709698992507</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3228908227326071</v>
+        <v>0.3489492311302003</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.044478476805926</v>
+        <v>4.830379363041247</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1548393202475652</v>
+        <v>0.2419844059413193</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.149797656033953</v>
+        <v>3.970380051144795</v>
       </c>
     </row>
     <row r="10">
@@ -768,7 +768,7 @@
         <v>0.3028277237961986</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.244343015454824</v>
+        <v>2.244343015454825</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-0.1381397221733721</v>
@@ -791,22 +791,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.705145006831318</v>
+        <v>-1.72153680758303</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.32342748020315</v>
+        <v>-0.2807707128201862</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.761749651974954</v>
+        <v>-2.916364391524638</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.274369619844324</v>
+        <v>3.439355819274986</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.596452804290631</v>
+        <v>-1.669501550710362</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.65980232872092</v>
+        <v>2.497025276916996</v>
       </c>
     </row>
     <row r="12">
@@ -817,22 +817,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.689324293177924</v>
+        <v>2.180504282000374</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.541190034638109</v>
+        <v>5.322268310095246</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.818949742216352</v>
+        <v>2.98254740865132</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.09431266545868</v>
+        <v>10.89083100797962</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.892031001888751</v>
+        <v>1.985095587741205</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.39847381021739</v>
+        <v>7.38262463909354</v>
       </c>
     </row>
     <row r="13">
@@ -846,7 +846,7 @@
         <v>0.1112794814061241</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.8247241161623283</v>
+        <v>0.8247241161623288</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.0204258920141465</v>
@@ -869,22 +869,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4853906204667594</v>
+        <v>-0.4666784248292638</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1460989156056743</v>
+        <v>-0.1452057118946891</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3557302699706249</v>
+        <v>-0.3579396504685347</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3707615005553079</v>
+        <v>0.3916543176314902</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3033469121938906</v>
+        <v>-0.2998950894800256</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4641432888461474</v>
+        <v>0.4319975085175042</v>
       </c>
     </row>
     <row r="15">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.513085103587822</v>
+        <v>1.152921215269426</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.871615663090001</v>
+        <v>2.697712148061528</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5360973196605222</v>
+        <v>0.5427527550435723</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.988418422987477</v>
+        <v>2.103561458799373</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4692729490539442</v>
+        <v>0.5472546069988771</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.865094575432853</v>
+        <v>1.956180510856301</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>-1.746665355907005</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.271202812629646</v>
+        <v>4.271202812629643</v>
       </c>
     </row>
     <row r="17">
@@ -951,22 +951,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.753106665689011</v>
+        <v>-2.596607787960287</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03587715910468015</v>
+        <v>0.1474311798564003</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.115477270787893</v>
+        <v>-6.13162911302391</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.273829770114754</v>
+        <v>1.967125006498881</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.515119166017563</v>
+        <v>-3.622754956062747</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.124946295429763</v>
+        <v>2.10929879893648</v>
       </c>
     </row>
     <row r="18">
@@ -977,22 +977,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.633590401683358</v>
+        <v>1.716190657000336</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.378956105276263</v>
+        <v>5.640899412940654</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5741802173514516</v>
+        <v>0.4502132012809575</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.39194085472799</v>
+        <v>9.381428031746365</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4563603645430214</v>
+        <v>0.4700385499589808</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.659348468849971</v>
+        <v>6.570774391680041</v>
       </c>
     </row>
     <row r="19">
@@ -1018,7 +1018,7 @@
         <v>-0.2157977441895839</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5277003570400906</v>
+        <v>0.5277003570400902</v>
       </c>
     </row>
     <row r="20">
@@ -1029,22 +1029,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5203587116262698</v>
+        <v>-0.5032980122101781</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.02020903277036722</v>
+        <v>0.007103513744341819</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4525301543175361</v>
+        <v>-0.4557836696018506</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1634824211864697</v>
+        <v>0.1384697265238179</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3842023491384021</v>
+        <v>-0.3997939453153482</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2356423183005504</v>
+        <v>0.2205300380675067</v>
       </c>
     </row>
     <row r="21">
@@ -1055,22 +1055,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5302310761876303</v>
+        <v>0.5547269854679465</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.697356680098158</v>
+        <v>1.711036762281875</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.07508565165601021</v>
+        <v>0.04436070190326258</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9443333945071377</v>
+        <v>0.9323851585596052</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.0692324631383413</v>
+        <v>0.07350707181440391</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9682892901903819</v>
+        <v>0.9670292038492366</v>
       </c>
     </row>
     <row r="22">
@@ -1088,7 +1088,7 @@
         <v>-0.1526078891561561</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>6.975916898240116</v>
+        <v>6.975916898240113</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-1.581058144704983</v>
@@ -1100,7 +1100,7 @@
         <v>-0.8643717745664623</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>8.71987621324176</v>
+        <v>8.719876213241761</v>
       </c>
     </row>
     <row r="23">
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.971852878758387</v>
+        <v>-3.146452381626123</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.496413303565956</v>
+        <v>3.347709836725663</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.85764030132354</v>
+        <v>-5.19147550970883</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.428700298825511</v>
+        <v>6.210684685812168</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.212053555431117</v>
+        <v>-3.3331401426429</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.267910755529392</v>
+        <v>5.775952333398503</v>
       </c>
     </row>
     <row r="24">
@@ -1137,22 +1137,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.962925004311761</v>
+        <v>2.770930403713514</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>10.40493654196199</v>
+        <v>10.30553389698533</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.436436338091253</v>
+        <v>2.603541699183373</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.02256295974795</v>
+        <v>13.59848702120779</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.583983668585206</v>
+        <v>1.431247132520976</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.22610012567429</v>
+        <v>11.09852538456251</v>
       </c>
     </row>
     <row r="25">
@@ -1178,7 +1178,7 @@
         <v>-0.08196904750677787</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8269126417679868</v>
+        <v>0.8269126417679872</v>
       </c>
     </row>
     <row r="26">
@@ -1189,22 +1189,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3827114934219597</v>
+        <v>-0.3811836690734878</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3931276413243772</v>
+        <v>0.40282996297864</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3511661489037913</v>
+        <v>-0.3169095327487074</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3749941677606841</v>
+        <v>0.3506230588533818</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2702845535105551</v>
+        <v>-0.2830371438905413</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5172257291092903</v>
+        <v>0.4774936191068417</v>
       </c>
     </row>
     <row r="27">
@@ -1215,22 +1215,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6346545012748552</v>
+        <v>0.5516383838059552</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.029027178875102</v>
+        <v>2.018613086338102</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2049739466674849</v>
+        <v>0.1981559146418047</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.14727281786952</v>
+        <v>1.116473494054425</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1735798390720529</v>
+        <v>0.1533961219444195</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.213463762939985</v>
+        <v>1.197851766983034</v>
       </c>
     </row>
     <row r="28">
@@ -1271,22 +1271,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4862529716956508</v>
+        <v>-1.007650893545406</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>6.739547379615879</v>
+        <v>6.662551461469246</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-9.022372752885669</v>
+        <v>-8.327900378474583</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.13640546930911</v>
+        <v>4.474002893961222</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.68113183492068</v>
+        <v>-3.575431523152933</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.106731253747752</v>
+        <v>6.532547817860604</v>
       </c>
     </row>
     <row r="30">
@@ -1297,22 +1297,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>8.040287092479121</v>
+        <v>7.65100691415372</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>14.81163848497485</v>
+        <v>14.91552461670239</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.78116076355157</v>
+        <v>2.41226258806456</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14.9531604851822</v>
+        <v>15.1648155030986</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.281643243980586</v>
+        <v>3.249050248895582</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>13.67695359060094</v>
+        <v>13.21314674148711</v>
       </c>
     </row>
     <row r="31">
@@ -1349,22 +1349,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.04945721201726487</v>
+        <v>-0.09343670783088587</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.5550489912276341</v>
+        <v>0.5863864810698427</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3665698356758483</v>
+        <v>-0.3568341947528531</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2106386324011285</v>
+        <v>0.1828903593661777</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2217310682361847</v>
+        <v>-0.2136652192754132</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4140974662845362</v>
+        <v>0.380276445099748</v>
       </c>
     </row>
     <row r="33">
@@ -1375,22 +1375,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.173570991582493</v>
+        <v>1.150451518787081</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.179443769314714</v>
+        <v>2.275664257685184</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.09946437032987661</v>
+        <v>0.1296906553421864</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.811947245385119</v>
+        <v>0.8520484054299806</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2461079602572104</v>
+        <v>0.2357253590494006</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.057234224978588</v>
+        <v>0.9889598708401435</v>
       </c>
     </row>
     <row r="34">
@@ -1408,19 +1408,19 @@
         <v>-5.442030554317377</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>2.892780139383697</v>
+        <v>2.892780139383691</v>
       </c>
       <c r="E34" s="5" t="n">
         <v>-10.93668267035995</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5.324100562091422</v>
+        <v>5.324100562091417</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-8.393925769437926</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>3.965340741092787</v>
+        <v>3.965340741092793</v>
       </c>
     </row>
     <row r="35">
@@ -1431,22 +1431,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-10.9852978734513</v>
+        <v>-11.24409879219676</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.737610858690052</v>
+        <v>-2.553562676496219</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-17.22695158163187</v>
+        <v>-16.75476717164901</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.8166750638109439</v>
+        <v>-1.001509856728962</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-12.37605287654622</v>
+        <v>-12.90475823556017</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>0.04158986658322281</v>
+        <v>-0.06770517644896722</v>
       </c>
     </row>
     <row r="36">
@@ -1457,22 +1457,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.2796533838418891</v>
+        <v>-0.2695145310834026</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.165014984865724</v>
+        <v>7.858738965907618</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-4.435212715567641</v>
+        <v>-4.615156641014519</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.05541859759433</v>
+        <v>10.85327559561588</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-3.989708341345012</v>
+        <v>-4.4925712620949</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>7.92141770869956</v>
+        <v>8.039057001960472</v>
       </c>
     </row>
     <row r="37">
@@ -1486,19 +1486,19 @@
         <v>-0.3623094563154445</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>0.1925901718263486</v>
+        <v>0.1925901718263483</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>-0.3876786116668722</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.1887263237398553</v>
+        <v>0.1887263237398551</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.3805940587678102</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1797949098555012</v>
+        <v>0.1797949098555015</v>
       </c>
     </row>
     <row r="38">
@@ -1509,22 +1509,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6067100137335766</v>
+        <v>-0.6152697933885862</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1508295926180364</v>
+        <v>-0.1467678080625783</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.5411649990127763</v>
+        <v>-0.5308745444373481</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.02493686276805123</v>
+        <v>-0.02936648114994037</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5053289563852362</v>
+        <v>-0.5173071565956744</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.001135323421932301</v>
+        <v>-0.001831234376217958</v>
       </c>
     </row>
     <row r="39">
@@ -1535,22 +1535,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.03375952539349094</v>
+        <v>-0.01852214556060236</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.6876694183431349</v>
+        <v>0.6376768673929739</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.182659612868949</v>
+        <v>-0.1830651867565576</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4511968155706576</v>
+        <v>0.4445010988452336</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.201576199280325</v>
+        <v>-0.2191740079953625</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4150749743029183</v>
+        <v>0.4112913979772514</v>
       </c>
     </row>
     <row r="40">
@@ -1574,13 +1574,13 @@
         <v>-9.790706390173359</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>12.43013416933328</v>
+        <v>12.43013416933327</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>-6.128561743186001</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>11.33101394876633</v>
+        <v>11.33101394876631</v>
       </c>
     </row>
     <row r="41">
@@ -1591,22 +1591,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-7.725981785579797</v>
+        <v>-7.896462515841475</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2.916551730529815</v>
+        <v>2.531231982783113</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-16.0149331309944</v>
+        <v>-17.22296812290204</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>5.967904924708189</v>
+        <v>6.413760398862217</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-11.39073903082294</v>
+        <v>-11.28567519934082</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>6.152912452823387</v>
+        <v>6.581247091301029</v>
       </c>
     </row>
     <row r="42">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>7.077537974271767</v>
+        <v>5.895628984125569</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>16.69791987067561</v>
+        <v>16.88298258068529</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-1.629143874126569</v>
+        <v>-2.913720659193823</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>19.23227439059008</v>
+        <v>18.83981393104333</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-1.001493750512254</v>
+        <v>-0.5888580327255031</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>15.63928240246286</v>
+        <v>16.01040749356784</v>
       </c>
     </row>
     <row r="43">
@@ -1652,13 +1652,13 @@
         <v>-0.2540680973737918</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>0.3225610505155335</v>
+        <v>0.3225610505155332</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>-0.195467003143879</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.361396267502632</v>
+        <v>0.3613962675026314</v>
       </c>
     </row>
     <row r="44">
@@ -1669,22 +1669,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3125575132976275</v>
+        <v>-0.3270201064081379</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.1146891184781372</v>
+        <v>0.1022930348990613</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3872810777455322</v>
+        <v>-0.4066433981531513</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1347299405818939</v>
+        <v>0.1478483714266592</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3390074532581374</v>
+        <v>-0.3339143070374522</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.177533999216699</v>
+        <v>0.1944511899175385</v>
       </c>
     </row>
     <row r="45">
@@ -1695,22 +1695,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4419875781787644</v>
+        <v>0.3618842366659389</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.079770370308811</v>
+        <v>1.048569668080426</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.04652370102873777</v>
+        <v>-0.08133635805638295</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5607283230786081</v>
+        <v>0.5620757707597757</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.03580146232984297</v>
+        <v>-0.02054605983713236</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.558577041584046</v>
+        <v>0.5584050564274745</v>
       </c>
     </row>
     <row r="46">
@@ -1740,7 +1740,7 @@
         <v>-1.623120289692205</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>8.409848433418151</v>
+        <v>8.409848433418146</v>
       </c>
     </row>
     <row r="47">
@@ -1751,22 +1751,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.232201393650873</v>
+        <v>-1.18617088400151</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>4.70155729428677</v>
+        <v>4.764184646878266</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.854625207941055</v>
+        <v>-5.044958027592652</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>8.702971852983367</v>
+        <v>8.490758422924493</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-2.81059984553186</v>
+        <v>-2.781091640446527</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>7.195251190727118</v>
+        <v>7.195646792128077</v>
       </c>
     </row>
     <row r="48">
@@ -1777,22 +1777,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>1.256853545662671</v>
+        <v>1.194603304954979</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>7.60271650702819</v>
+        <v>7.670881342050791</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-1.524402826798539</v>
+        <v>-1.561671291824557</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>12.1416320364916</v>
+        <v>12.15771008080072</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.579703454361862</v>
+        <v>-0.6082907758164003</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>9.555365175340942</v>
+        <v>9.50873116662147</v>
       </c>
     </row>
     <row r="49">
@@ -1818,7 +1818,7 @@
         <v>-0.1402299008111973</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.7265710490742898</v>
+        <v>0.7265710490742894</v>
       </c>
     </row>
     <row r="50">
@@ -1829,22 +1829,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.166716730380183</v>
+        <v>-0.1655871065381829</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.6473263080347066</v>
+        <v>0.6436424443219085</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2863839731960714</v>
+        <v>-0.2935860445093854</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.5022544179207752</v>
+        <v>0.4896161072926692</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2325936923730575</v>
+        <v>-0.2306265605117372</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.5874729680365396</v>
+        <v>0.5920863100440521</v>
       </c>
     </row>
     <row r="51">
@@ -1855,22 +1855,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2031386361776529</v>
+        <v>0.1953994884562348</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>1.252537991592096</v>
+        <v>1.255737519351547</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.1002419681805461</v>
+        <v>-0.1013068094057838</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.7908635320236381</v>
+        <v>0.8027978625562939</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.05152456007786716</v>
+        <v>-0.05315948711015088</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.87248918726303</v>
+        <v>0.8665859716625268</v>
       </c>
     </row>
     <row r="52">
